--- a/VulnerabilityMapping/SmartFast.xlsx
+++ b/VulnerabilityMapping/SmartFast.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8252EA-0FC3-4B9A-B947-43EE2DF145E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A86E38-D147-4239-AD44-9B638E2E7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,20 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="130">
   <si>
     <t>abiencoderv2-array</t>
   </si>
@@ -228,9 +237,6 @@
   </si>
   <si>
     <t>extcodesize-invoke</t>
-  </si>
-  <si>
-    <t>fllback-outofgas</t>
   </si>
   <si>
     <t>incorrect-blockhash</t>
@@ -406,6 +412,14 @@
   </si>
   <si>
     <t>High\Opt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info/High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fallback-outofgas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -832,16 +846,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -891,10 +905,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -1009,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1563,10 +1577,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>22</v>
@@ -1605,10 +1619,10 @@
         <v>74</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>22</v>
@@ -1843,10 +1857,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>55</v>
@@ -1857,10 +1871,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>55</v>
@@ -1871,10 +1885,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>55</v>
@@ -1885,10 +1899,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>55</v>
@@ -1899,10 +1913,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>55</v>
@@ -1913,10 +1927,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>55</v>
@@ -1927,10 +1941,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>55</v>
@@ -1941,10 +1955,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>55</v>
@@ -1955,13 +1969,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -1969,13 +1983,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -1983,13 +1997,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -1997,13 +2011,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
@@ -2011,13 +2025,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -2025,13 +2039,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -2039,13 +2053,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -2053,13 +2067,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -2067,13 +2081,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -2081,13 +2095,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
@@ -2095,13 +2109,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -2109,13 +2123,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -2123,13 +2137,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -2137,13 +2151,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -2151,13 +2165,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -2165,13 +2179,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -2179,13 +2193,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -2193,13 +2207,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -2207,13 +2221,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -2221,13 +2235,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -2235,13 +2249,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -2249,13 +2263,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
@@ -2263,13 +2277,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
@@ -2277,13 +2291,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
@@ -2291,13 +2305,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -2305,13 +2319,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
@@ -2319,13 +2333,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
@@ -2333,13 +2347,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
@@ -2347,13 +2361,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
@@ -2361,13 +2375,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
@@ -2375,13 +2389,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
@@ -2389,13 +2403,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
@@ -2403,13 +2417,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
@@ -2417,13 +2431,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
@@ -2431,13 +2445,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
@@ -2445,13 +2459,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
@@ -2459,13 +2473,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
@@ -2473,13 +2487,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
@@ -2487,13 +2501,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
@@ -2501,13 +2515,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/VulnerabilityMapping/SmartFast.xlsx
+++ b/VulnerabilityMapping/SmartFast.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A86E38-D147-4239-AD44-9B638E2E7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0372461-2C03-4116-85C3-1DAE4E01605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
